--- a/pbs_ex2_code_framework/error_measurement.xlsx
+++ b/pbs_ex2_code_framework/error_measurement.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\ETH\7. Semester\physically-based simulations\projects\pbs\pbs_ex2_code_framework\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="30" windowWidth="28500" windowHeight="12840"/>
+    <workbookView xWindow="156" yWindow="36" windowWidth="28500" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,26 +23,26 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>error measurement</t>
+    <t>Laplace</t>
   </si>
   <si>
-    <t>size (N)</t>
+    <t>Poisson</t>
   </si>
   <si>
-    <t>laplace</t>
+    <t>Graded (poisson)</t>
   </si>
   <si>
-    <t>poisson</t>
+    <t>Error measurement</t>
   </si>
   <si>
-    <t>graded (poisson)</t>
+    <t>Size (N)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -62,25 +67,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -118,9 +187,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -152,9 +221,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,9 +273,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -361,131 +466,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="B3" s="1">
+        <v>4.1170199999999999E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.1666700000000001E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.31273099999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4.1170199999999999E-3</v>
-      </c>
-      <c r="C3">
-        <v>4.1666700000000001E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.31273099999999998</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.45684E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.4144199999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.127167</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1.45684E-3</v>
-      </c>
-      <c r="C4">
-        <v>1.4144199999999999E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.127167</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5.1421699999999997E-4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.9369100000000001E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.8173100000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>5.1421699999999997E-4</v>
-      </c>
-      <c r="C5">
-        <v>4.9369100000000001E-3</v>
-      </c>
-      <c r="D5">
-        <v>4.8173100000000003E-2</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.1543199999999999E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.1029799999999999E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.1199300000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>1.1543199999999999E-3</v>
-      </c>
-      <c r="C6">
-        <v>1.1029799999999999E-3</v>
-      </c>
-      <c r="D6">
-        <v>1.1199300000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2.7251100000000001E-5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2.5969600000000002E-4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2.6623900000000002E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
